--- a/Pickle/tune2.xlsx
+++ b/Pickle/tune2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadasch/PycharmProjects/Task1_Representation/Pickle/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6494A5-F52C-BC40-8C14-1E0485B38CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,32 +25,32 @@
     <t>value</t>
   </si>
   <si>
-    <t>[1, 0.2833333333333333]</t>
-  </si>
-  <si>
-    <t>[2, 0.2833333333333333]</t>
-  </si>
-  <si>
-    <t>[3, 0.23333333333333334]</t>
-  </si>
-  <si>
     <t>[4, 0.3]</t>
   </si>
   <si>
-    <t>[5, 0.31666666666666665]</t>
-  </si>
-  <si>
-    <t>[6, 0.3333333333333333]</t>
-  </si>
-  <si>
     <t>[7, 0.35]</t>
+  </si>
+  <si>
+    <t>[1, ]</t>
+  </si>
+  <si>
+    <t>[2, ]</t>
+  </si>
+  <si>
+    <t>[3, ]</t>
+  </si>
+  <si>
+    <t>[5, ]</t>
+  </si>
+  <si>
+    <t>[6, ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,72 +444,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="H2">
+        <v>0.28333333333333299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="H3">
+        <v>0.28333333333333299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="H4">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="H6">
+        <v>0.31666666666666599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="H7">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
